--- a/analises_dos_dados_preliminares/Quantidade de Cartoletas na ultima rodada.xlsx
+++ b/analises_dos_dados_preliminares/Quantidade de Cartoletas na ultima rodada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpcrj\OneDrive\Área de Trabalho\Faculdade\TCC_code\sportsAnalytics\analises_dos_dados_preliminares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA12A940-36EF-4691-8DBA-301C83A198D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7BA3B9-9923-471C-8CDC-27F1A4960421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77609EA8-FCF2-4D4E-9BA0-CF68055775AC}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="C1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +479,9 @@
       <c r="E3" s="3">
         <v>77.44</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3">
+        <v>85.57</v>
+      </c>
       <c r="G3" s="3">
         <v>136.18</v>
       </c>
@@ -511,7 +513,9 @@
       <c r="E5" s="3">
         <v>75.790000000000006</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <v>102.04</v>
+      </c>
       <c r="G5" s="3">
         <v>135.41</v>
       </c>
